--- a/data/hotels_by_city/Dallas/Dallas_shard_225.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_225.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Neal M</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Lovely staffVery cleanThey were very proactive and went out of their way to serveThe housekeepwrabdis a great job cleaning the room.The managers were so outgoing and friendly.No maintainece issuesMore</t>
   </si>
   <si>
+    <t>Nick L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r581256934-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Let me preface this by saying about a year ago I had the worst experience at this hotel with a staff member absolutely the worst. I had stuff stolen and it was a nightmare. Fast forward to April. The staff here is completely different and absolutely amazing. Antonio, Karen and Katie are all super friendly and equally helpful. They always take care of me and if you’re nice they’ll do the same for you.More</t>
   </si>
   <si>
+    <t>Subhayu B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r572505065-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>Please stay away from this property. The carpet stinks, keys dont work, internet does not work, no utensil in the kitchen, dryer does not work, unproffessional stuff.Some are almost rude or indifferent. Only positives are the price and the location.More</t>
   </si>
   <si>
+    <t>bluewindriders</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r572462636-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>Like an earlier review stated, things in the room are a bit worn looking, plus the evening desk staff would be away for long periods of time. I had to ask several times for kitchen items. After the first call, I went down and there was no one there. I called again later and was told they would be up shortly. After another hour, I called again and was told I told them I didn't need anything (guessing they went to the wrong room). Overall, reasonably clean and comfortable, but could use updating and more attentive employees.More</t>
   </si>
   <si>
+    <t>jguski1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r571608382-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t>While the room was smaller than others in the same chain I've stayed in the room was clean and quite, even with the room facing the highway.  The furniture was a bit shop-worn.  The light over the sink could be brighter.  Overall an OK place to stay with get amenities nearby.More</t>
   </si>
   <si>
+    <t>Gary W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r569622008-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t>Overall not a bad hotel. Front desk personnel are friendly. However, the office personnel at night can be absent for extended periods or asleep at the desk. Despite the construction to the lobby, the general appearance of the hotel is good. The queen sized beds are comfortable and rooms are fairly clean. I’ve spent many nights at this hotel as a temporary home. My one real complaint is the odors that are emitted from every room. Pets are allowed in this hotel leading to the he overall smell. Please take a can of air freshener to mask the smell. Bathroom and shower is ok and fairly modern. Occasionally not as clean as it should be with old towels left behind the door and commode not spic and span.Breakfast consist of muffins or breakfast bars and coffee. You can request dishes and cookware for your room. Just call the front desk.Parking is ample and restaurants are very nearby. On a scale of 1 to 10, I would rate this hotel a 7. This score is better than some of the other ESA hotels in the in the North Dallas area.More</t>
   </si>
   <si>
+    <t>mollybL8718WW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r566401492-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -330,6 +351,9 @@
     <t>awesome room good price great friendly staff awesome  i enjoyed my stay here and would recommend to all of anyone nice place peaceful and felt safe and was very comfortable here as if i were right at home safe no problems at all with any thing very laid back and clean everywhere nice placeMore</t>
   </si>
   <si>
+    <t>Jsstar75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r559306741-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t>The front desk staff are very nice people. The district manager “Tammy” the most unprofessional person I have seen. I would describe her as ghetto and unprofessional, I would even call her a racist. The housekeepers don’t do the best job cleaning the rooms. They will tidy the room but make your bed with the same dirty sheets so I would say clean your own room if you want it clean. It’s a safe building and it’s in a great location. Would I recommend it not after my interaction with the thing they hired as the district manager “Tammy”.More</t>
   </si>
   <si>
+    <t>cng659</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r545049941-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -384,6 +411,9 @@
     <t>I had a great stay. The hotel was spotless clean &amp; tidy. No trash or smelly hallways and room was just perfect. Audrey was the best, she did a great job with a smile at all times. Will visit again. CNGMore</t>
   </si>
   <si>
+    <t>harish_h_patil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r509444122-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -411,6 +441,9 @@
     <t>This is a very nice place to stay. Cooperative staff, amenities and facilities provided by the hotel makes you feel at home. Other good thing is they provide free shuttle service for corporates ( pick and drop facility), free grab and go breakfast and free unlimited wifi. I had a wonderful stay at this place and would definitely recommend to others.More</t>
   </si>
   <si>
+    <t>Bo M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r504014403-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -435,6 +468,9 @@
     <t>The atmosphere at the Plano ESA is upbeat and lively.  The staff is first class. Kudos to Audrey K. for her outstanding service and positive attitide. Enjoying my stay immensely. Will highly recommend!More</t>
   </si>
   <si>
+    <t>C6587OWjamesc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r503381516-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -459,6 +495,9 @@
     <t>I sincerely enjoy this hotel but things have to change as I have written.  thank you for being there. I had lived in plano for 36 years with my business and I saw this hotel built so I understand what I'm talking about.More</t>
   </si>
   <si>
+    <t>justinsK3807OR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r494445801-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -486,6 +525,9 @@
     <t>Clean rooms friendly staff and right next to a Saltgrass. I have a yearly conference in that area. The hotel is very accessible. Good price and quality stay. Plenty of places to eat. Not noisy. I would recommend this place to stay.More</t>
   </si>
   <si>
+    <t>Eyezoftexas12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r492227858-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -510,6 +552,9 @@
     <t>Staff was amazing, so was the room. I had to call the desk because a dog defecated in the hall and they had it clean in seconds. Wish wifi and breakfast wasn't as bad as they are, but everything else was amazingMore</t>
   </si>
   <si>
+    <t>amygrimes1964</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r508611495-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -519,6 +564,9 @@
     <t>June 10, 2017</t>
   </si>
   <si>
+    <t>jeffreymY8585XE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r491729036-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -549,6 +597,9 @@
     <t>Had and amazing stay and they treated us like family. I felt at home there. I would definitely come back to this hotel if I ever have to travel again. I couldn't thank the staff enough for being amazing.More</t>
   </si>
   <si>
+    <t>mohitkr78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r463046974-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -576,6 +627,9 @@
     <t>This hotel is a great option to stay in Plano especially for those who have come to work at Plano. It is one of the most economical, I could find in Plano. The location is awesome- you can find a lot of eating and daily shopping options within 10 minutes walk. The rooms are clean and adequate in size for 1 person. They also provide free pick and drop to nearby offices. They do provide a "grab-and-go" breakfast that is limited to coffee, tea, muffins and oats. You can also cook you own food as they provide induction stove, microwave oven and refrigerator. The utensils and cutlery is availble from reception.More</t>
   </si>
   <si>
+    <t>ernesto569</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r444903646-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -603,6 +657,9 @@
     <t>This is my new Favorite place to stay.  It is by far the gem of all Extended Stay Hotels I have visited.  Having a really great staff on ALL shifts really impressed me even more. I stayed for two months and am about to sign up for another two months.  The rooms are fantastic and I would rather stay here than most hotels for several reasons.  I am a tall person and I'm also over 50 so I have traveled around enough to know a really great deal when I get one.  This place is at the top of my charts. Karen in particular was always ready at a moments notice with all the information I needed but the entire staff seems to be so competent and helpful.  From extra towels, billing questions or a bar of soap.  They always had me covered.  The manager Luisa seems like she can do anything by taking care of requests for information, billing or anything else efficiently and effortlessly because she knows here job. Very competent and pleasant which is what travelers like me really appreciate.  They also have a customer relations department that you can go to for other questions or accommodations. They communicate well and follow up like clock work.  Thanks to the district manager (Steven) who has made my Christmas away from home a little better.  It's impressive to see a company that has such good people at every level....This is my new Favorite place to stay.  It is by far the gem of all Extended Stay Hotels I have visited.  Having a really great staff on ALL shifts really impressed me even more. I stayed for two months and am about to sign up for another two months.  The rooms are fantastic and I would rather stay here than most hotels for several reasons.  I am a tall person and I'm also over 50 so I have traveled around enough to know a really great deal when I get one.  This place is at the top of my charts. Karen in particular was always ready at a moments notice with all the information I needed but the entire staff seems to be so competent and helpful.  From extra towels, billing questions or a bar of soap.  They always had me covered.  The manager Luisa seems like she can do anything by taking care of requests for information, billing or anything else efficiently and effortlessly because she knows here job. Very competent and pleasant which is what travelers like me really appreciate.  They also have a customer relations department that you can go to for other questions or accommodations. They communicate well and follow up like clock work.  Thanks to the district manager (Steven) who has made my Christmas away from home a little better.  It's impressive to see a company that has such good people at every level.  They are certainly doing several things right!More</t>
   </si>
   <si>
+    <t>BaileyDogsMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r439790386-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -630,6 +687,9 @@
     <t>I believed this "extended stay" type of hotel to be one that has all of the amenities already in the room. But I get there to find out that they have taken out ALL of the pots, pans, coffee maker, plates and silverware. WHAT? That's right. If you want them, you have to ask for them. THAT was the whole reason for staying at an extended stay hotel. So that I could have my own coffee every morning that I make, and so that I could cook whenever I want without having to go to a restaurant. They have what they call a Grab and Go breakfast. It's not what you think. Either they have you choose from prepackaged muffins, a granola bar or oatmeal that you make for yourself in a coffee cup. But I will never, ever stay at an Extended Stay America again. No coffee makers, plates, pots and pans, etc. AND if you want your room cleaned, you HAVE TO PAY another $10 a day. No thanks. It was so not what I expected. Especially for that part of town.More</t>
   </si>
   <si>
+    <t>Seth M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r434163190-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -654,6 +714,9 @@
     <t>We have been at the Extended Stay for close to 3 weeks due to our home being renovated. Honestly its has been the closest replacement to our home as possible. The front desk staff have been amazing and i would reccomend this hotel to anybody needing a place to stay when life throws a curve ball.More</t>
   </si>
   <si>
+    <t>Love L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r431036413-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -678,6 +741,9 @@
     <t>Aside from having overall great customer service and cleanliness, the manager named Karen always goes out of her way to solve problems and make your stay as comfortable as possible. The staff are very courteous as well!More</t>
   </si>
   <si>
+    <t>487keitha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r428178453-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -702,6 +768,9 @@
     <t>Over the Columbus Day weekend, the hotel chose to store its trash (including food waste) in the stairwell.  It was there on the Friday when I checked in and on the Monday when I left.  The smell progressively got worse as time went on.  You also have to wonder about rats and roaches.  By the way, trash was stored at every floor.More</t>
   </si>
   <si>
+    <t>Joey R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r414994252-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -729,6 +798,9 @@
     <t>I stayed at this hotel while I was doing some school in the area. At first sight it actually seems pretty nice until I got to the stair wells to go to the next floor. They are disgusting. Smelled absolutely terrible and have dried spills all over the floor and stairs. Once I got to my room and look decent until I woke up the next morning to my bathroom sink COVERED in ants. Front desk was notified and nothing was done. Finally I requested a new room. I walked in and it had a very strong odor of smoke that will not go away. And again there are ants in that room too! There are dried spills and messes on tables and counters. Housekeeping is a joke. The insides of drawers in bathroom and kitchen are gross and have stains and gunk. I looked under my bed and there was an old dirty washcloth along with other trash. Toilet was terrible also. A friend that was also staying here checked his bed to find urine stains in the mattress cover. After finally getting help he got a new mattress cover which was too big and housekeeping stated that he has to put it on himself even though they get paid to do it. I am not high maintenance by any means but if someone is paying to stay here they should get good service and clean rooms. So overall...I stayed at this hotel while I was doing some school in the area. At first sight it actually seems pretty nice until I got to the stair wells to go to the next floor. They are disgusting. Smelled absolutely terrible and have dried spills all over the floor and stairs. Once I got to my room and look decent until I woke up the next morning to my bathroom sink COVERED in ants. Front desk was notified and nothing was done. Finally I requested a new room. I walked in and it had a very strong odor of smoke that will not go away. And again there are ants in that room too! There are dried spills and messes on tables and counters. Housekeeping is a joke. The insides of drawers in bathroom and kitchen are gross and have stains and gunk. I looked under my bed and there was an old dirty washcloth along with other trash. Toilet was terrible also. A friend that was also staying here checked his bed to find urine stains in the mattress cover. After finally getting help he got a new mattress cover which was too big and housekeeping stated that he has to put it on himself even though they get paid to do it. I am not high maintenance by any means but if someone is paying to stay here they should get good service and clean rooms. So overall this hotel was absolutely terrible. The only reason it got a one star rating was because I had to give at least one star but I will never even consider staying here again. Also, breakfast is a joke. It consists of granola bars and mini muffins yet they have a whole dining area to make people things there is actually a decent breakfast. Very deceiving.More</t>
   </si>
   <si>
+    <t>forevermylove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r413728624-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -753,6 +825,9 @@
     <t>I love the service that they have here and the people are really nice to the guest and everyone else. The service in the morning and evening are real good they are very helpful with everything that you need to know about.More</t>
   </si>
   <si>
+    <t>Bibin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r413033359-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -774,6 +849,9 @@
     <t>Thanks to Extended Stay America for making my stay wonderful. The services were excellent and all the Staffs were also kind and helpful especially Karen. I would certainly recommend this hotel to my friends.More</t>
   </si>
   <si>
+    <t>Sarper79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r411545739-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -798,6 +876,9 @@
     <t>I stay this hotel almost 10 months,location is very close to restaurants.....hotel rooms are clean also hotel staffs and manager are very  helpful(thanks Karen).....also every room has a kitchen,you can get coffee machine or dishes from the reception...i recommend this hotel,good price and good hotel.....More</t>
   </si>
   <si>
+    <t>Giovanni S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r403333202-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -822,6 +903,9 @@
     <t>Great staff and manager, great location, I'm from Chicago and everyone makes you feel like your at home. 2 restaurants in or parking lot, stores in walking distance. Very safe feeling at this location. Would definitely recommend this hotelMore</t>
   </si>
   <si>
+    <t>Jack M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r391387380-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -846,6 +930,9 @@
     <t>We arrived late Thursday night, only spending one night.  Used priceline, and this is what we got.  So many times the reviews below have comments from management saying they will work with housekeeping.  I personally believe those notes are just a joke.  Saying something to placate the people complaining.  The room itself wasn't bad - it would be fine for a stay.  The fact that the towels in the room when we arrived were all used (quite disgusting), and the Chick fil A sacks in the trash sure weren't ours.  I could not ever recommend that anybody stay here.  I will say the front desk people both at check in and check out - were pleasant and very helpful.  I honestly hope they find work at a neighboring hotel that has standards.  They would do well.  If you can't get  housekeeping to do their job - then get new ones!  The manager of this hotel should be replaced.  On a side note, the breakfast might as well be non existent, don't base your stay on breakfast.  Hit a restaurant if you actually want food.More</t>
   </si>
   <si>
+    <t>Mahmud M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r364317621-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -873,6 +960,9 @@
     <t>The location is very close to freeway and that helps lot if you want to go to visit few sites, Very friendly desk people and will always there to help you will bring your utensils to your room. making your own breakfast will make your stay the best is what I ike the most when I am on vacation.More</t>
   </si>
   <si>
+    <t>SelfTitled</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r352476699-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -900,6 +990,9 @@
     <t>We booked this property through Hotwire, and were a little apprehensive after seeing some of the other TripAdvisor reviews.  However, when we arrived, the staff was courteous and the room was clean and seemed fairly well-maintained.  There was some wear and tear on the furniture, but at the price point we had, that is to be expected.  It's nothing that affected the quality of our stay, with one exception.  The bed was somewhat uncomfortable, which is why I can't give a five-point rating.  It was fine for our short stay, but I think it would have been increasingly problematic for a longer stay.  The breakfast is VERY basic, as advertised, but is still a free meal, and again, a great deal for the price we booked the hotel.Now, one caveat: as mentioned, this was booked at a very discounted price.  The list price on the hotel for that weekend was $100 per night, and had I booked at that price, I would have expected more at least out of the bed and the breakfast.  That being said, overall, we had a very pleasant stay.More</t>
   </si>
   <si>
+    <t>Famof3911</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r344356348-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1017,9 @@
     <t>Stayed there for almost a week a few weeks ago.  Nothing spectacular.  Two ladies at front office were friendly and always ready to help (Blanca and Mrs Hernandez). Hot shower was not that hot for us from IL.  Sometimes water was just warm. They did not provide any utensils, cooking plates etc in the kitchen. You have to ask front desk, so it was a bit of hassle. Breakfast was minimum. It was only dark and decaf coffee, some fruits, brownies and oatmeal. Internet connection was quite good for 4th floor.  Room provided many electric outlets for chargingMore</t>
   </si>
   <si>
+    <t>shira76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r339776281-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1047,9 @@
     <t>Very nice property. Nice, friendly lady at check in. Thought it a little strange that there were no items in the kitchen (like coffee makers.) did not realize until second day, that if you wanted these items, you had to request them. Rooms were nice and clean. We thought there were several design flaws. (Pass thru from kitchen to bedroom?, could have used "seperation"  between living room and bedroom, so someone working there would not disturb someone lying down. )More</t>
   </si>
   <si>
+    <t>LA M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r331836803-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -976,6 +1075,9 @@
   </si>
   <si>
     <t>I highly recommend the HYATT PLACE at 3100 Dallas Pwky, Plano, TX. Very Professional and cleaner rooms. The handicap room at the Extend Stay was dirty and moldy not a healthy. Mrg was told and no cleaning done. no other rooms because booked. Hell, the Mrg was cold, kurt with no costumer serv personality. Forget about Corp. # for complaints. Never returned calls. Paper thin walls. No Hot water in morning.Off my list.More</t>
+  </si>
+  <si>
+    <t>silvertips2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r317206633-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
@@ -1008,6 +1110,9 @@
 Normally I would say these are all minor items and would give this location passing grade, however I had a run in with an insect...The location and grounds were great. The interior was nice and the guest were responsible.The room looked remodeled but a final walk through after remodel was not made. The interior windows were dirty from some type of black powder and there was over spray on the interior of the bathroom door.The unit has a full kitchen but oddly no cooking items and no utensils, my guess is we have to bring our own which is not possible on airline travel. The rear and side entrances have a key access but there were not working. I advised the front desk and there answer was that they know of the problem and were working on finding a bid to have them repaired. The problem was that there were no signs warning guest that the card access was broken and guest were using the carpet to block the doors in an open position, making it a security concern for me. There also two large hot water boilers that they had placed in the hallway in front of my room for the entire duration of my stay. It looked as if they were going to start to install them on the day I checked out, but I felt it was a fire hazard to block a hallway.Normally I would say these are all minor items and would give this location passing grade, however I had a run in with an insect in my room. At 4:00 a.m. while I was sleeping in my bed, I felt something land on my neck and then flew off when I reached to swat it. Now knowing if it was a spider or cockroach, I suddenly woke up and turned one all the lights to determine what had landed on my neck. I first found a dead cricket in the corner of the room behind the bed, then a few minutes later, the live cricket came out from under furniture and I caught and took it to the front desk and showed the clerk, who said she would notify the property manager. luckily I found no more crickets but the night was ruined. I spoke to the day manger the next day who said that she was not aware of the matter and promised to call and exterminator the next day. I sure having the back door propped open allowed insects to easily enter the building. No passing grade for this facilityMore</t>
   </si>
   <si>
+    <t>bobbyleeh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r307638951-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1140,9 @@
     <t>We had a local soccer tournament over the Labor Day weekend and even though it was a local tournament we decided to stay at one of the hotels close to the tournament instead of driving an hour each day to and from the games. We made a reservation at this hotel since most of the hotels were full. After the 1st game we went to the hotel around 2 pm and although the check in time is 3 pm, I asked the front desk clerk, Dominique, if they had any rooms available. The clerk, Dominique, didn't find any rooms available for early check in but then the day Manager, Rodney, arrived on scene and showed her how to rearrange rooms since we were already there. That helped out a lot as my son had already played one game and it was hot outside and he was tired. We wanted to rest a bit before his next game because if any of you have experienced the Texas heat on Labor Day then you understand. Both Rodney and Dominique were polite and easy to deal with . Once we got to the room though the honeymoon ended. There was a smell by the room that was coming from another room and it smelled like curry. It was a very strong smell that permeated the whole hallway. Entering our room there was a strong overly sweet smell like they had used an abundance...We had a local soccer tournament over the Labor Day weekend and even though it was a local tournament we decided to stay at one of the hotels close to the tournament instead of driving an hour each day to and from the games. We made a reservation at this hotel since most of the hotels were full. After the 1st game we went to the hotel around 2 pm and although the check in time is 3 pm, I asked the front desk clerk, Dominique, if they had any rooms available. The clerk, Dominique, didn't find any rooms available for early check in but then the day Manager, Rodney, arrived on scene and showed her how to rearrange rooms since we were already there. That helped out a lot as my son had already played one game and it was hot outside and he was tired. We wanted to rest a bit before his next game because if any of you have experienced the Texas heat on Labor Day then you understand. Both Rodney and Dominique were polite and easy to deal with . Once we got to the room though the honeymoon ended. There was a smell by the room that was coming from another room and it smelled like curry. It was a very strong smell that permeated the whole hallway. Entering our room there was a strong overly sweet smell like they had used an abundance of cleaner to mask another smell. The range top had baked on splatter of some unknown substance. I could scrape some of it off if I tried but since I didn't make the mess I wasn't going to clean it. The A/C in the bedroom just wouldn't cool the room. I tried re-setting it but to no avail. It cooled but not as much as I'd like it. When we left the room to go eat we noticed a trashcan in the stairwell that had the same smell as what was in the hallway. There was a lot of trash in the can and I noticed that when we came back home the can still wasn't emptied. When we checked out in the morning I saw that the trashcan was still full but the smell was only stronger. As I checked out I advised the clerk, Dominique, that the rear door by our room leading outside, would not lock on it's own. As you exited the building, the door was supposed to close by itself and had a magnetic lock that activated when the door shut. This was to keep people from coming into the hotel from the outside when they didn't have a room key. This was not the case. Not very secure. All in all the hotel was ok for a 1 night rental. I wouldn't have stayed here for an extended time. The day manager Rodney and Dominique were the highlight of my stay. They were very helpful...More</t>
   </si>
   <si>
+    <t>Cheryl V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r302798897-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1170,9 @@
     <t>The rooms are wired for illegal monitoring at this hotel located in Plano and the other one on Greenville/635. I've stayed in 3 rooms so far. I've been viewed while in the expected privacy of my room dressing, showering, and working by 2 stalkers who have stalked me at the last 15+ places. These perverts have stalked others I have known in the exact same rooms and locations where they view you in the room and make comments during the day and at night. The police are not listening and are not a resource. The accommodations are not acceptable with the monitoring. The towels and linens smell bad like they are half washed and soap is not used. I definitely do not recommend staying at this hotel or any of the lower price point hotels in the area as it has happened at the others as well.More</t>
   </si>
   <si>
+    <t>john w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r298972331-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1195,9 @@
   </si>
   <si>
     <t>Very happy with our stay!  3 days here.  Front desk gal Renee was very helpful and friendly, one of the best and most efficient I've encountered in a few years.  Nice pool.  Bed firm but not hard.  Well located with a variety of restaurants from McDonalds to steakhouses close to the motel.  We got the motel from the computer reservation software so were not sure what to expect, but we are so pleasantly surprised over the great rates.  NOTE: This is an extended stay motel, so there is no daily room cleaning service.  I think it is once a week maid service, but there is a full kitchen in the room.  They even supply cookware etc.  This will be my #1 choice for this area when I get here again.  I  love to cook my own food when I am on the road and this place makes it possible.  The room is as nicely appointed as the last higher quality facility I stayed in without the cost!  Thanks Extended Stay for a really relaxing stay!More</t>
+  </si>
+  <si>
+    <t>mai r</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r270470145-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
@@ -1615,43 +1729,47 @@
       <c r="A2" t="n">
         <v>33565</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>72346</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1663,56 +1781,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33565</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>24475</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1724,56 +1846,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33565</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1795,56 +1921,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33565</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1862,56 +1992,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33565</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1933,56 +2067,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33565</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>23215</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1994,56 +2132,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33565</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2065,56 +2207,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33565</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2136,56 +2282,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33565</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2207,56 +2357,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33565</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2278,56 +2432,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33565</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2339,56 +2497,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="X12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33565</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2410,56 +2572,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="X13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33565</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136141</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2481,56 +2647,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33565</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2552,41 +2722,45 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="X15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33565</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -2602,51 +2776,52 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33565</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="O17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2668,56 +2843,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="X17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33565</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2735,56 +2914,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="X18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33565</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2800,56 +2983,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33565</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O20" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2867,56 +3054,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33565</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>59803</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2934,56 +3125,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="X21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33565</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2999,56 +3194,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="X22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33565</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3066,56 +3265,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="X23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="Y23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33565</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>37423</v>
+      </c>
+      <c r="C24" t="s">
+        <v>250</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="J24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3127,56 +3330,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33565</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K25" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="O25" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3188,56 +3395,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="X25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33565</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136151</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="O26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3255,56 +3466,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="X26" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33565</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>277</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3316,56 +3531,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="X27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="Y27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33565</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>1378</v>
+      </c>
+      <c r="C28" t="s">
+        <v>286</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3377,56 +3596,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="X28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="Y28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33565</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>3852</v>
+      </c>
+      <c r="C29" t="s">
+        <v>295</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3442,56 +3665,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="X29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="Y29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33565</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136153</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="J30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="K30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3507,56 +3734,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="X30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="Y30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33565</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>314</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="J31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="K31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="O31" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3574,47 +3805,51 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="X31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33565</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>324</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
@@ -3631,56 +3866,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="X32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="Y32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33565</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136156</v>
+      </c>
+      <c r="C33" t="s">
+        <v>333</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="J33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="L33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="O33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3698,56 +3937,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="X33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33565</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136157</v>
+      </c>
+      <c r="C34" t="s">
+        <v>343</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="J34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="K34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="L34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="O34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3763,47 +4006,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="X34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="Y34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33565</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>5437</v>
+      </c>
+      <c r="C35" t="s">
+        <v>353</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="J35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="L35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
@@ -3820,56 +4067,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="X35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="Y35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33565</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>362</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="J36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="K36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="L36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="O36" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3885,56 +4136,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="X36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="Y36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33565</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>21845</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="J37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="K37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -3952,56 +4207,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="X37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="Y37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33565</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>12600</v>
+      </c>
+      <c r="C38" t="s">
+        <v>382</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="J38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="K38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="O38" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4017,56 +4276,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="X38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="Y38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33565</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>391</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="J39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="K39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="L39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="O39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -4086,7 +4349,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_225.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_225.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,162 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Neal M</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r600285776-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>217712</t>
+  </si>
+  <si>
+    <t>600285776</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>Medical device sales</t>
+  </si>
+  <si>
+    <t>Going into extended stay of America was an experience I’ll never forget. The manager Antonio made my 6 week stay the most pleasant stay I could ask for. He’s the most helpful man and cares so much. He truly wants you to have the most comfortable stay. I easily would recommend the stay to a friend or family and I’ll most definitely go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Going into extended stay of America was an experience I’ll never forget. The manager Antonio made my 6 week stay the most pleasant stay I could ask for. He’s the most helpful man and cares so much. He truly wants you to have the most comfortable stay. I easily would recommend the stay to a friend or family and I’ll most definitely go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r581256934-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>581256934</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Staff is great</t>
+  </si>
+  <si>
+    <t>Let me preface this by saying about a year ago I had the worst experience at this hotel with a staff member absolutely the worst. I had stuff stolen and it was a nightmare. Fast forward to April. The staff here is completely different and absolutely amazing. Antonio, Karen and Katie are all super friendly and equally helpful. They always take care of me and if you’re nice they’ll do the same for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano, responded to this reviewResponded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Let me preface this by saying about a year ago I had the worst experience at this hotel with a staff member absolutely the worst. I had stuff stolen and it was a nightmare. Fast forward to April. The staff here is completely different and absolutely amazing. Antonio, Karen and Katie are all super friendly and equally helpful. They always take care of me and if you’re nice they’ll do the same for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r592980714-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>592980714</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>They make you feel like home.</t>
+  </si>
+  <si>
+    <t>I lived here in 2018. The staff is unbelievably-accommodating, hard-working, professional, with outstanding customer service skills. Karen bent over backwards to help meet my hospitality needs, secure the lowest rate for the largest room, and did so kindly, patiently and professionally, with a smile. If you are disadvantaged, disenfranchised, cannot buy a house or rent an apartment, or in town for only a few month.... whatever your circumstance.... at this Extended Stay America in Plano, they know how to make you feel right at home. Why go anywhere else!?MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano, responded to this reviewResponded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2018</t>
+  </si>
+  <si>
+    <t>I lived here in 2018. The staff is unbelievably-accommodating, hard-working, professional, with outstanding customer service skills. Karen bent over backwards to help meet my hospitality needs, secure the lowest rate for the largest room, and did so kindly, patiently and professionally, with a smile. If you are disadvantaged, disenfranchised, cannot buy a house or rent an apartment, or in town for only a few month.... whatever your circumstance.... at this Extended Stay America in Plano, they know how to make you feel right at home. Why go anywhere else!?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r591532311-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>591532311</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Roaches in the rooms and very bad smell hallways -staff is rude</t>
+  </si>
+  <si>
+    <t>roaches crawling all over in the rooms and hall ways and staircase smells worst. Staff is rude and they don't do timely cleaning and even they do it is not good. Other hotels of this chain is good but this place is worst, it may be due to the manager headstrong. I am close to my office so I am continuing here. Never again my life. They just lost one customer.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
+  </si>
+  <si>
+    <t>roaches crawling all over in the rooms and hall ways and staircase smells worst. Staff is rude and they don't do timely cleaning and even they do it is not good. Other hotels of this chain is good but this place is worst, it may be due to the manager headstrong. I am close to my office so I am continuing here. Never again my life. They just lost one customer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r591273345-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>591273345</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Worst staff and manager- Roaches in the rooms</t>
+  </si>
+  <si>
+    <t>I have lived here for more than two months and the staff is worst and no courtesy towards the customers. They literally don't care for the customer needs. This is the only place my company can sponsor to stay( being cheap), so I have no option but to stay that duration and on top of that I had my family stayed as well. Although I stayed for more than 2 months, they don't really care for customer needs, complaints. There are roaches in the room and complained many times and I had to literally kill them to ensure my kids won't get sick. They don't even deserve 1 rating,but I don't see anything less than that.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano, responded to this reviewResponded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2018</t>
+  </si>
+  <si>
+    <t>I have lived here for more than two months and the staff is worst and no courtesy towards the customers. They literally don't care for the customer needs. This is the only place my company can sponsor to stay( being cheap), so I have no option but to stay that duration and on top of that I had my family stayed as well. Although I stayed for more than 2 months, they don't really care for customer needs, complaints. There are roaches in the room and complained many times and I had to literally kill them to ensure my kids won't get sick. They don't even deserve 1 rating,but I don't see anything less than that.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r581389223-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>217712</t>
-  </si>
-  <si>
     <t>581389223</t>
   </si>
   <si>
@@ -174,48 +315,18 @@
     <t>Lovely staffVery cleanThey were very proactive and went out of their way to serveThe housekeepwrabdis a great job cleaning the room.The managers were so outgoing and friendly.No maintainece issuesMoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano, responded to this reviewResponded May 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2018</t>
   </si>
   <si>
     <t>Lovely staffVery cleanThey were very proactive and went out of their way to serveThe housekeepwrabdis a great job cleaning the room.The managers were so outgoing and friendly.No maintainece issuesMore</t>
   </si>
   <si>
-    <t>Nick L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r581256934-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>581256934</t>
-  </si>
-  <si>
-    <t>05/19/2018</t>
-  </si>
-  <si>
-    <t>Staff is great</t>
-  </si>
-  <si>
-    <t>Let me preface this by saying about a year ago I had the worst experience at this hotel with a staff member absolutely the worst. I had stuff stolen and it was a nightmare. Fast forward to April. The staff here is completely different and absolutely amazing. Antonio, Karen and Katie are all super friendly and equally helpful. They always take care of me and if you’re nice they’ll do the same for you.MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Let me preface this by saying about a year ago I had the worst experience at this hotel with a staff member absolutely the worst. I had stuff stolen and it was a nightmare. Fast forward to April. The staff here is completely different and absolutely amazing. Antonio, Karen and Katie are all super friendly and equally helpful. They always take care of me and if you’re nice they’ll do the same for you.More</t>
-  </si>
-  <si>
-    <t>Subhayu B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r572505065-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -243,9 +354,6 @@
     <t>Please stay away from this property. The carpet stinks, keys dont work, internet does not work, no utensil in the kitchen, dryer does not work, unproffessional stuff.Some are almost rude or indifferent. Only positives are the price and the location.More</t>
   </si>
   <si>
-    <t>bluewindriders</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r572462636-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -258,15 +366,9 @@
     <t>Like an earlier review stated, things in the room are a bit worn looking, plus the evening desk staff would be away for long periods of time. I had to ask several times for kitchen items. After the first call, I went down and there was no one there. I called again later and was told they would be up shortly. After another hour, I called again and was told I told them I didn't need anything (guessing they went to the wrong room). Overall, reasonably clean and comfortable, but could use updating and more attentive employees.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Like an earlier review stated, things in the room are a bit worn looking, plus the evening desk staff would be away for long periods of time. I had to ask several times for kitchen items. After the first call, I went down and there was no one there. I called again later and was told they would be up shortly. After another hour, I called again and was told I told them I didn't need anything (guessing they went to the wrong room). Overall, reasonably clean and comfortable, but could use updating and more attentive employees.More</t>
   </si>
   <si>
-    <t>jguski1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r571608382-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -282,12 +384,6 @@
     <t>While the room was smaller than others in the same chain I've stayed in the room was clean and quite, even with the room facing the highway.  The furniture was a bit shop-worn.  The light over the sink could be brighter.  Overall an OK place to stay with get amenities nearby.MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Plano, responded to this reviewResponded April 7, 2018</t>
   </si>
   <si>
@@ -297,9 +393,6 @@
     <t>While the room was smaller than others in the same chain I've stayed in the room was clean and quite, even with the room facing the highway.  The furniture was a bit shop-worn.  The light over the sink could be brighter.  Overall an OK place to stay with get amenities nearby.More</t>
   </si>
   <si>
-    <t>Gary W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r569622008-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -324,9 +417,6 @@
     <t>Overall not a bad hotel. Front desk personnel are friendly. However, the office personnel at night can be absent for extended periods or asleep at the desk. Despite the construction to the lobby, the general appearance of the hotel is good. The queen sized beds are comfortable and rooms are fairly clean. I’ve spent many nights at this hotel as a temporary home. My one real complaint is the odors that are emitted from every room. Pets are allowed in this hotel leading to the he overall smell. Please take a can of air freshener to mask the smell. Bathroom and shower is ok and fairly modern. Occasionally not as clean as it should be with old towels left behind the door and commode not spic and span.Breakfast consist of muffins or breakfast bars and coffee. You can request dishes and cookware for your room. Just call the front desk.Parking is ample and restaurants are very nearby. On a scale of 1 to 10, I would rate this hotel a 7. This score is better than some of the other ESA hotels in the in the North Dallas area.More</t>
   </si>
   <si>
-    <t>mollybL8718WW</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r566401492-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -351,9 +441,6 @@
     <t>awesome room good price great friendly staff awesome  i enjoyed my stay here and would recommend to all of anyone nice place peaceful and felt safe and was very comfortable here as if i were right at home safe no problems at all with any thing very laid back and clean everywhere nice placeMore</t>
   </si>
   <si>
-    <t>Jsstar75</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r559306741-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -381,9 +468,6 @@
     <t>The front desk staff are very nice people. The district manager “Tammy” the most unprofessional person I have seen. I would describe her as ghetto and unprofessional, I would even call her a racist. The housekeepers don’t do the best job cleaning the rooms. They will tidy the room but make your bed with the same dirty sheets so I would say clean your own room if you want it clean. It’s a safe building and it’s in a great location. Would I recommend it not after my interaction with the thing they hired as the district manager “Tammy”.More</t>
   </si>
   <si>
-    <t>cng659</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r545049941-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -411,9 +495,6 @@
     <t>I had a great stay. The hotel was spotless clean &amp; tidy. No trash or smelly hallways and room was just perfect. Audrey was the best, she did a great job with a smile at all times. Will visit again. CNGMore</t>
   </si>
   <si>
-    <t>harish_h_patil</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r509444122-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -441,9 +522,6 @@
     <t>This is a very nice place to stay. Cooperative staff, amenities and facilities provided by the hotel makes you feel at home. Other good thing is they provide free shuttle service for corporates ( pick and drop facility), free grab and go breakfast and free unlimited wifi. I had a wonderful stay at this place and would definitely recommend to others.More</t>
   </si>
   <si>
-    <t>Bo M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r504014403-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -468,9 +546,6 @@
     <t>The atmosphere at the Plano ESA is upbeat and lively.  The staff is first class. Kudos to Audrey K. for her outstanding service and positive attitide. Enjoying my stay immensely. Will highly recommend!More</t>
   </si>
   <si>
-    <t>C6587OWjamesc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r503381516-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -495,9 +570,6 @@
     <t>I sincerely enjoy this hotel but things have to change as I have written.  thank you for being there. I had lived in plano for 36 years with my business and I saw this hotel built so I understand what I'm talking about.More</t>
   </si>
   <si>
-    <t>justinsK3807OR</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r494445801-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -525,9 +597,6 @@
     <t>Clean rooms friendly staff and right next to a Saltgrass. I have a yearly conference in that area. The hotel is very accessible. Good price and quality stay. Plenty of places to eat. Not noisy. I would recommend this place to stay.More</t>
   </si>
   <si>
-    <t>Eyezoftexas12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r492227858-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -552,19 +621,31 @@
     <t>Staff was amazing, so was the room. I had to call the desk because a dog defecated in the hall and they had it clean in seconds. Wish wifi and breakfast wasn't as bad as they are, but everything else was amazingMore</t>
   </si>
   <si>
-    <t>amygrimes1964</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r508611495-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>508611495</t>
   </si>
   <si>
-    <t>June 10, 2017</t>
-  </si>
-  <si>
-    <t>jeffreymY8585XE</t>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Not impressed - staff was very nice but cleanliness was not impressive.  Would have moved to another hotel if I hadn't already paid for the length of my stay.  Would recommend keeping the place cleaner.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Plano, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Not impressed - staff was very nice but cleanliness was not impressive.  Would have moved to another hotel if I hadn't already paid for the length of my stay.  Would recommend keeping the place cleaner.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r491729036-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
@@ -585,9 +666,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Dallas - Plano, responded to this reviewResponded June 9, 2017</t>
   </si>
   <si>
@@ -597,9 +675,6 @@
     <t>Had and amazing stay and they treated us like family. I felt at home there. I would definitely come back to this hotel if I ever have to travel again. I couldn't thank the staff enough for being amazing.More</t>
   </si>
   <si>
-    <t>mohitkr78</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r463046974-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -627,9 +702,6 @@
     <t>This hotel is a great option to stay in Plano especially for those who have come to work at Plano. It is one of the most economical, I could find in Plano. The location is awesome- you can find a lot of eating and daily shopping options within 10 minutes walk. The rooms are clean and adequate in size for 1 person. They also provide free pick and drop to nearby offices. They do provide a "grab-and-go" breakfast that is limited to coffee, tea, muffins and oats. You can also cook you own food as they provide induction stove, microwave oven and refrigerator. The utensils and cutlery is availble from reception.More</t>
   </si>
   <si>
-    <t>ernesto569</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r444903646-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -657,9 +729,6 @@
     <t>This is my new Favorite place to stay.  It is by far the gem of all Extended Stay Hotels I have visited.  Having a really great staff on ALL shifts really impressed me even more. I stayed for two months and am about to sign up for another two months.  The rooms are fantastic and I would rather stay here than most hotels for several reasons.  I am a tall person and I'm also over 50 so I have traveled around enough to know a really great deal when I get one.  This place is at the top of my charts. Karen in particular was always ready at a moments notice with all the information I needed but the entire staff seems to be so competent and helpful.  From extra towels, billing questions or a bar of soap.  They always had me covered.  The manager Luisa seems like she can do anything by taking care of requests for information, billing or anything else efficiently and effortlessly because she knows here job. Very competent and pleasant which is what travelers like me really appreciate.  They also have a customer relations department that you can go to for other questions or accommodations. They communicate well and follow up like clock work.  Thanks to the district manager (Steven) who has made my Christmas away from home a little better.  It's impressive to see a company that has such good people at every level....This is my new Favorite place to stay.  It is by far the gem of all Extended Stay Hotels I have visited.  Having a really great staff on ALL shifts really impressed me even more. I stayed for two months and am about to sign up for another two months.  The rooms are fantastic and I would rather stay here than most hotels for several reasons.  I am a tall person and I'm also over 50 so I have traveled around enough to know a really great deal when I get one.  This place is at the top of my charts. Karen in particular was always ready at a moments notice with all the information I needed but the entire staff seems to be so competent and helpful.  From extra towels, billing questions or a bar of soap.  They always had me covered.  The manager Luisa seems like she can do anything by taking care of requests for information, billing or anything else efficiently and effortlessly because she knows here job. Very competent and pleasant which is what travelers like me really appreciate.  They also have a customer relations department that you can go to for other questions or accommodations. They communicate well and follow up like clock work.  Thanks to the district manager (Steven) who has made my Christmas away from home a little better.  It's impressive to see a company that has such good people at every level.  They are certainly doing several things right!More</t>
   </si>
   <si>
-    <t>BaileyDogsMom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r439790386-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -687,9 +756,6 @@
     <t>I believed this "extended stay" type of hotel to be one that has all of the amenities already in the room. But I get there to find out that they have taken out ALL of the pots, pans, coffee maker, plates and silverware. WHAT? That's right. If you want them, you have to ask for them. THAT was the whole reason for staying at an extended stay hotel. So that I could have my own coffee every morning that I make, and so that I could cook whenever I want without having to go to a restaurant. They have what they call a Grab and Go breakfast. It's not what you think. Either they have you choose from prepackaged muffins, a granola bar or oatmeal that you make for yourself in a coffee cup. But I will never, ever stay at an Extended Stay America again. No coffee makers, plates, pots and pans, etc. AND if you want your room cleaned, you HAVE TO PAY another $10 a day. No thanks. It was so not what I expected. Especially for that part of town.More</t>
   </si>
   <si>
-    <t>Seth M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r434163190-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -714,9 +780,6 @@
     <t>We have been at the Extended Stay for close to 3 weeks due to our home being renovated. Honestly its has been the closest replacement to our home as possible. The front desk staff have been amazing and i would reccomend this hotel to anybody needing a place to stay when life throws a curve ball.More</t>
   </si>
   <si>
-    <t>Love L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r431036413-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -741,9 +804,6 @@
     <t>Aside from having overall great customer service and cleanliness, the manager named Karen always goes out of her way to solve problems and make your stay as comfortable as possible. The staff are very courteous as well!More</t>
   </si>
   <si>
-    <t>487keitha</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r428178453-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -768,9 +828,6 @@
     <t>Over the Columbus Day weekend, the hotel chose to store its trash (including food waste) in the stairwell.  It was there on the Friday when I checked in and on the Monday when I left.  The smell progressively got worse as time went on.  You also have to wonder about rats and roaches.  By the way, trash was stored at every floor.More</t>
   </si>
   <si>
-    <t>Joey R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r414994252-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -798,9 +855,6 @@
     <t>I stayed at this hotel while I was doing some school in the area. At first sight it actually seems pretty nice until I got to the stair wells to go to the next floor. They are disgusting. Smelled absolutely terrible and have dried spills all over the floor and stairs. Once I got to my room and look decent until I woke up the next morning to my bathroom sink COVERED in ants. Front desk was notified and nothing was done. Finally I requested a new room. I walked in and it had a very strong odor of smoke that will not go away. And again there are ants in that room too! There are dried spills and messes on tables and counters. Housekeeping is a joke. The insides of drawers in bathroom and kitchen are gross and have stains and gunk. I looked under my bed and there was an old dirty washcloth along with other trash. Toilet was terrible also. A friend that was also staying here checked his bed to find urine stains in the mattress cover. After finally getting help he got a new mattress cover which was too big and housekeeping stated that he has to put it on himself even though they get paid to do it. I am not high maintenance by any means but if someone is paying to stay here they should get good service and clean rooms. So overall...I stayed at this hotel while I was doing some school in the area. At first sight it actually seems pretty nice until I got to the stair wells to go to the next floor. They are disgusting. Smelled absolutely terrible and have dried spills all over the floor and stairs. Once I got to my room and look decent until I woke up the next morning to my bathroom sink COVERED in ants. Front desk was notified and nothing was done. Finally I requested a new room. I walked in and it had a very strong odor of smoke that will not go away. And again there are ants in that room too! There are dried spills and messes on tables and counters. Housekeeping is a joke. The insides of drawers in bathroom and kitchen are gross and have stains and gunk. I looked under my bed and there was an old dirty washcloth along with other trash. Toilet was terrible also. A friend that was also staying here checked his bed to find urine stains in the mattress cover. After finally getting help he got a new mattress cover which was too big and housekeeping stated that he has to put it on himself even though they get paid to do it. I am not high maintenance by any means but if someone is paying to stay here they should get good service and clean rooms. So overall this hotel was absolutely terrible. The only reason it got a one star rating was because I had to give at least one star but I will never even consider staying here again. Also, breakfast is a joke. It consists of granola bars and mini muffins yet they have a whole dining area to make people things there is actually a decent breakfast. Very deceiving.More</t>
   </si>
   <si>
-    <t>forevermylove</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r413728624-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -825,9 +879,6 @@
     <t>I love the service that they have here and the people are really nice to the guest and everyone else. The service in the morning and evening are real good they are very helpful with everything that you need to know about.More</t>
   </si>
   <si>
-    <t>Bibin M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r413033359-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -849,9 +900,6 @@
     <t>Thanks to Extended Stay America for making my stay wonderful. The services were excellent and all the Staffs were also kind and helpful especially Karen. I would certainly recommend this hotel to my friends.More</t>
   </si>
   <si>
-    <t>Sarper79</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r411545739-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -876,9 +924,6 @@
     <t>I stay this hotel almost 10 months,location is very close to restaurants.....hotel rooms are clean also hotel staffs and manager are very  helpful(thanks Karen).....also every room has a kitchen,you can get coffee machine or dishes from the reception...i recommend this hotel,good price and good hotel.....More</t>
   </si>
   <si>
-    <t>Giovanni S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r403333202-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -903,9 +948,6 @@
     <t>Great staff and manager, great location, I'm from Chicago and everyone makes you feel like your at home. 2 restaurants in or parking lot, stores in walking distance. Very safe feeling at this location. Would definitely recommend this hotelMore</t>
   </si>
   <si>
-    <t>Jack M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r391387380-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -930,9 +972,6 @@
     <t>We arrived late Thursday night, only spending one night.  Used priceline, and this is what we got.  So many times the reviews below have comments from management saying they will work with housekeeping.  I personally believe those notes are just a joke.  Saying something to placate the people complaining.  The room itself wasn't bad - it would be fine for a stay.  The fact that the towels in the room when we arrived were all used (quite disgusting), and the Chick fil A sacks in the trash sure weren't ours.  I could not ever recommend that anybody stay here.  I will say the front desk people both at check in and check out - were pleasant and very helpful.  I honestly hope they find work at a neighboring hotel that has standards.  They would do well.  If you can't get  housekeeping to do their job - then get new ones!  The manager of this hotel should be replaced.  On a side note, the breakfast might as well be non existent, don't base your stay on breakfast.  Hit a restaurant if you actually want food.More</t>
   </si>
   <si>
-    <t>Mahmud M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r364317621-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -960,9 +999,6 @@
     <t>The location is very close to freeway and that helps lot if you want to go to visit few sites, Very friendly desk people and will always there to help you will bring your utensils to your room. making your own breakfast will make your stay the best is what I ike the most when I am on vacation.More</t>
   </si>
   <si>
-    <t>SelfTitled</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r352476699-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -990,9 +1026,6 @@
     <t>We booked this property through Hotwire, and were a little apprehensive after seeing some of the other TripAdvisor reviews.  However, when we arrived, the staff was courteous and the room was clean and seemed fairly well-maintained.  There was some wear and tear on the furniture, but at the price point we had, that is to be expected.  It's nothing that affected the quality of our stay, with one exception.  The bed was somewhat uncomfortable, which is why I can't give a five-point rating.  It was fine for our short stay, but I think it would have been increasingly problematic for a longer stay.  The breakfast is VERY basic, as advertised, but is still a free meal, and again, a great deal for the price we booked the hotel.Now, one caveat: as mentioned, this was booked at a very discounted price.  The list price on the hotel for that weekend was $100 per night, and had I booked at that price, I would have expected more at least out of the bed and the breakfast.  That being said, overall, we had a very pleasant stay.More</t>
   </si>
   <si>
-    <t>Famof3911</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r344356348-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1017,9 +1050,6 @@
     <t>Stayed there for almost a week a few weeks ago.  Nothing spectacular.  Two ladies at front office were friendly and always ready to help (Blanca and Mrs Hernandez). Hot shower was not that hot for us from IL.  Sometimes water was just warm. They did not provide any utensils, cooking plates etc in the kitchen. You have to ask front desk, so it was a bit of hassle. Breakfast was minimum. It was only dark and decaf coffee, some fruits, brownies and oatmeal. Internet connection was quite good for 4th floor.  Room provided many electric outlets for chargingMore</t>
   </si>
   <si>
-    <t>shira76</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r339776281-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1047,9 +1077,6 @@
     <t>Very nice property. Nice, friendly lady at check in. Thought it a little strange that there were no items in the kitchen (like coffee makers.) did not realize until second day, that if you wanted these items, you had to request them. Rooms were nice and clean. We thought there were several design flaws. (Pass thru from kitchen to bedroom?, could have used "seperation"  between living room and bedroom, so someone working there would not disturb someone lying down. )More</t>
   </si>
   <si>
-    <t>LA M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r331836803-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1075,9 +1102,6 @@
   </si>
   <si>
     <t>I highly recommend the HYATT PLACE at 3100 Dallas Pwky, Plano, TX. Very Professional and cleaner rooms. The handicap room at the Extend Stay was dirty and moldy not a healthy. Mrg was told and no cleaning done. no other rooms because booked. Hell, the Mrg was cold, kurt with no costumer serv personality. Forget about Corp. # for complaints. Never returned calls. Paper thin walls. No Hot water in morning.Off my list.More</t>
-  </si>
-  <si>
-    <t>silvertips2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r317206633-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
@@ -1110,9 +1134,6 @@
 Normally I would say these are all minor items and would give this location passing grade, however I had a run in with an insect...The location and grounds were great. The interior was nice and the guest were responsible.The room looked remodeled but a final walk through after remodel was not made. The interior windows were dirty from some type of black powder and there was over spray on the interior of the bathroom door.The unit has a full kitchen but oddly no cooking items and no utensils, my guess is we have to bring our own which is not possible on airline travel. The rear and side entrances have a key access but there were not working. I advised the front desk and there answer was that they know of the problem and were working on finding a bid to have them repaired. The problem was that there were no signs warning guest that the card access was broken and guest were using the carpet to block the doors in an open position, making it a security concern for me. There also two large hot water boilers that they had placed in the hallway in front of my room for the entire duration of my stay. It looked as if they were going to start to install them on the day I checked out, but I felt it was a fire hazard to block a hallway.Normally I would say these are all minor items and would give this location passing grade, however I had a run in with an insect in my room. At 4:00 a.m. while I was sleeping in my bed, I felt something land on my neck and then flew off when I reached to swat it. Now knowing if it was a spider or cockroach, I suddenly woke up and turned one all the lights to determine what had landed on my neck. I first found a dead cricket in the corner of the room behind the bed, then a few minutes later, the live cricket came out from under furniture and I caught and took it to the front desk and showed the clerk, who said she would notify the property manager. luckily I found no more crickets but the night was ruined. I spoke to the day manger the next day who said that she was not aware of the matter and promised to call and exterminator the next day. I sure having the back door propped open allowed insects to easily enter the building. No passing grade for this facilityMore</t>
   </si>
   <si>
-    <t>bobbyleeh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r307638951-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1125,7 +1146,7 @@
     <t>Soccer tournament 2015</t>
   </si>
   <si>
-    <t>We had a local soccer tournament over the Labor Day weekend and even though it was a local tournament we decided to stay at one of the hotels close to the tournament instead of driving an hour each day to and from the games. We made a reservation at this hotel since most of the hotels were full. After the 1st game we went to the hotel around 2 pm and although the check in time is 3 pm, I asked the front desk clerk, Dominique, if they had any rooms available. The clerk, Dominique, didn't find any rooms available for early check in but then the day Manager, Rodney, arrived on scene and showed her how to rearrange rooms since we were already there. That helped out a lot as my son had already played one game and it was hot outside and he was tired. We wanted to rest a bit before his next game because if any of you have experienced the Texas heat on Labor Day then you understand. Both Rodney and Dominique were polite and easy to deal with . Once we got to the room though the honeymoon ended. There was a smell by the room that was coming from another room and it smelled like curry. It was a very strong smell that permeated the whole hallway. Entering our room there was a strong overly sweet smell like they had used an abundance...We had a local soccer tournament over the Labor Day weekend and even though it was a local tournament we decided to stay at one of the hotels close to the tournament instead of driving an hour each day to and from the games. We made a reservation at this hotel since most of the hotels were full. After the 1st game we went to the hotel around 2 pm and although the check in time is 3 pm, I asked the front desk clerk, Dominique, if they had any rooms available. The clerk, Dominique, didn't find any rooms available for early check in but then the day Manager, Rodney, arrived on scene and showed her how to rearrange rooms since we were already there. That helped out a lot as my son had already played one game and it was hot outside and he was tired. We wanted to rest a bit before his next game because if any of you have experienced the Texas heat on Labor Day then you understand. Both Rodney and Dominique were polite and easy to deal with . Once we got to the room though the honeymoon ended. There was a smell by the room that was coming from another room and it smelled like curry. It was a very strong smell that permeated the whole hallway. Entering our room there was a strong overly sweet smell like they had used an abundance of cleaner to mask another smell. The range top had baked on splatter of some unknown substance. I could scrape some of it off if I tried but since I didn't make the mess I wasn't going to clean it. The A/C in the bedroom just wouldn't cool the room. I tried re-setting it but to no avail. It cooled but not as much as I'd like it. When we left the room to go eat we noticed a trashcan in the stairwell that had the same smell as what was in the hallway. There was a lot of trash in the can and I noticed that when we came back home the can still wasn't emptied. When we checked out in the morning I saw that the trashcan was still full but the smell was only stronger. As I checked out I advised the clerk, Dominique, that the rear door by our room leading outside, would not lock on it's own. As you exited the building, the door was supposed to close by itself and had a magnetic lock that activated when the door shut. This was to keep people from coming into the hotel from the outside when they didn't have a room key. This was not the case. Not very secure. All in all the hotel was ok for a 1 night rental. I wouldn't have stayed here for an extended time. The day manager Rodney and Dominique were the highlight of my stay. They were very helpful...MoreShow less</t>
+    <t>We had a local soccer tournament over the Labor Day weekend and even though it was a local tournament we decided to stay at one of the hotels close to the tournament instead of driving an hour each day to and from the games. We made a reservation at this hotel since most of the hotels were full. After the 1st game we went to the hotel around 2 pm and although the check in time is 3 pm, I asked the front desk clerk, Dominique, if they had any rooms available. The clerk, Dominique, didn't find any rooms available for early check in but then the day Manager, Rodney, arrived on scene and showed her how to rearrange rooms since we were already there. That helped out a lot as my son had already played one game and it was hot outside and he was tired. We wanted to rest a bit before his next game because if any of you have experienced the Texas heat on Labor Day then you understand. Both Rodney and Dominique were polite and easy to deal with . Once we got to the room though the honeymoon ended. There was a smell by the room that was coming from another room and it smelled like curry. It was a very strong smell that permeated the whole hallway. Entering our room there was a strong overly sweet smell like they had used an abundance...We had a local soccer tournament over the Labor Day weekend and even though it was a local tournament we decided to stay at one of the hotels close to the tournament instead of driving an hour each day to and from the games. We made a reservation at this hotel since most of the hotels were full. After the 1st game we went to the hotel around 2 pm and although the check in time is 3 pm, I asked the front desk clerk, Dominique, if they had any rooms available. The clerk, Dominique, didn't find any rooms available for early check in but then the day Manager, Rodney, arrived on scene and showed her how to rearrange rooms since we were already there. That helped out a lot as my son had already played one game and it was hot outside and he was tired. We wanted to rest a bit before his next game because if any of you have experienced the Texas heat on Labor Day then you understand. Both Rodney and Dominique were polite and easy to deal with . Once we got to the room though the honeymoon ended. There was a smell by the room that was coming from another room and it smelled like curry. It was a very strong smell that permeated the whole hallway. Entering our room there was a strong overly sweet smell like they had used an abundance of cleaner to mask another smell. The range top had baked on splatter of some unknown substance. I could scrape some of it off if I tried but since I didn't make the mess I wasn't going to clean it. The A/C in the bedroom just wouldn't cool the room. I tried re-setting it but to no avail. It cooled but not as much as I'd like it. When we left the room to go eat we noticed a trashcan in the stairwell that had the same smell as what was in the hallway. There was a lot of trash in the can and I noticed that when we came back home the can still wasn't emptied. When we checked out in the morning I saw that the trashcan was still full but the smell was only stronger. As I checked out I advised the clerk, Dominique, that the rear door by our room leading outside, would not lock on it's own. As you exited the building, the door was supposed to close by itself and had a magnetic lock that activated when the door shut. This was to keep people from coming into the hotel from the outside when they didn't have a room key. This was not the case. Not very secure. All in all the hotel was ok for a 1 night rental. I wouldn't have stayed here for an extended time. The day manager Rodney and Dominique were the highlight of my stay. They were very helpful in my check-in and check-out.MoreShow less</t>
   </si>
   <si>
     <t>September 2015</t>
@@ -1137,10 +1158,7 @@
     <t>Responded September 16, 2015</t>
   </si>
   <si>
-    <t>We had a local soccer tournament over the Labor Day weekend and even though it was a local tournament we decided to stay at one of the hotels close to the tournament instead of driving an hour each day to and from the games. We made a reservation at this hotel since most of the hotels were full. After the 1st game we went to the hotel around 2 pm and although the check in time is 3 pm, I asked the front desk clerk, Dominique, if they had any rooms available. The clerk, Dominique, didn't find any rooms available for early check in but then the day Manager, Rodney, arrived on scene and showed her how to rearrange rooms since we were already there. That helped out a lot as my son had already played one game and it was hot outside and he was tired. We wanted to rest a bit before his next game because if any of you have experienced the Texas heat on Labor Day then you understand. Both Rodney and Dominique were polite and easy to deal with . Once we got to the room though the honeymoon ended. There was a smell by the room that was coming from another room and it smelled like curry. It was a very strong smell that permeated the whole hallway. Entering our room there was a strong overly sweet smell like they had used an abundance...We had a local soccer tournament over the Labor Day weekend and even though it was a local tournament we decided to stay at one of the hotels close to the tournament instead of driving an hour each day to and from the games. We made a reservation at this hotel since most of the hotels were full. After the 1st game we went to the hotel around 2 pm and although the check in time is 3 pm, I asked the front desk clerk, Dominique, if they had any rooms available. The clerk, Dominique, didn't find any rooms available for early check in but then the day Manager, Rodney, arrived on scene and showed her how to rearrange rooms since we were already there. That helped out a lot as my son had already played one game and it was hot outside and he was tired. We wanted to rest a bit before his next game because if any of you have experienced the Texas heat on Labor Day then you understand. Both Rodney and Dominique were polite and easy to deal with . Once we got to the room though the honeymoon ended. There was a smell by the room that was coming from another room and it smelled like curry. It was a very strong smell that permeated the whole hallway. Entering our room there was a strong overly sweet smell like they had used an abundance of cleaner to mask another smell. The range top had baked on splatter of some unknown substance. I could scrape some of it off if I tried but since I didn't make the mess I wasn't going to clean it. The A/C in the bedroom just wouldn't cool the room. I tried re-setting it but to no avail. It cooled but not as much as I'd like it. When we left the room to go eat we noticed a trashcan in the stairwell that had the same smell as what was in the hallway. There was a lot of trash in the can and I noticed that when we came back home the can still wasn't emptied. When we checked out in the morning I saw that the trashcan was still full but the smell was only stronger. As I checked out I advised the clerk, Dominique, that the rear door by our room leading outside, would not lock on it's own. As you exited the building, the door was supposed to close by itself and had a magnetic lock that activated when the door shut. This was to keep people from coming into the hotel from the outside when they didn't have a room key. This was not the case. Not very secure. All in all the hotel was ok for a 1 night rental. I wouldn't have stayed here for an extended time. The day manager Rodney and Dominique were the highlight of my stay. They were very helpful...More</t>
-  </si>
-  <si>
-    <t>Cheryl V</t>
+    <t>We had a local soccer tournament over the Labor Day weekend and even though it was a local tournament we decided to stay at one of the hotels close to the tournament instead of driving an hour each day to and from the games. We made a reservation at this hotel since most of the hotels were full. After the 1st game we went to the hotel around 2 pm and although the check in time is 3 pm, I asked the front desk clerk, Dominique, if they had any rooms available. The clerk, Dominique, didn't find any rooms available for early check in but then the day Manager, Rodney, arrived on scene and showed her how to rearrange rooms since we were already there. That helped out a lot as my son had already played one game and it was hot outside and he was tired. We wanted to rest a bit before his next game because if any of you have experienced the Texas heat on Labor Day then you understand. Both Rodney and Dominique were polite and easy to deal with . Once we got to the room though the honeymoon ended. There was a smell by the room that was coming from another room and it smelled like curry. It was a very strong smell that permeated the whole hallway. Entering our room there was a strong overly sweet smell like they had used an abundance...We had a local soccer tournament over the Labor Day weekend and even though it was a local tournament we decided to stay at one of the hotels close to the tournament instead of driving an hour each day to and from the games. We made a reservation at this hotel since most of the hotels were full. After the 1st game we went to the hotel around 2 pm and although the check in time is 3 pm, I asked the front desk clerk, Dominique, if they had any rooms available. The clerk, Dominique, didn't find any rooms available for early check in but then the day Manager, Rodney, arrived on scene and showed her how to rearrange rooms since we were already there. That helped out a lot as my son had already played one game and it was hot outside and he was tired. We wanted to rest a bit before his next game because if any of you have experienced the Texas heat on Labor Day then you understand. Both Rodney and Dominique were polite and easy to deal with . Once we got to the room though the honeymoon ended. There was a smell by the room that was coming from another room and it smelled like curry. It was a very strong smell that permeated the whole hallway. Entering our room there was a strong overly sweet smell like they had used an abundance of cleaner to mask another smell. The range top had baked on splatter of some unknown substance. I could scrape some of it off if I tried but since I didn't make the mess I wasn't going to clean it. The A/C in the bedroom just wouldn't cool the room. I tried re-setting it but to no avail. It cooled but not as much as I'd like it. When we left the room to go eat we noticed a trashcan in the stairwell that had the same smell as what was in the hallway. There was a lot of trash in the can and I noticed that when we came back home the can still wasn't emptied. When we checked out in the morning I saw that the trashcan was still full but the smell was only stronger. As I checked out I advised the clerk, Dominique, that the rear door by our room leading outside, would not lock on it's own. As you exited the building, the door was supposed to close by itself and had a magnetic lock that activated when the door shut. This was to keep people from coming into the hotel from the outside when they didn't have a room key. This was not the case. Not very secure. All in all the hotel was ok for a 1 night rental. I wouldn't have stayed here for an extended time. The day manager Rodney and Dominique were the highlight of my stay. They were very helpful in my check-in and check-out.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r302798897-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
@@ -1170,9 +1188,6 @@
     <t>The rooms are wired for illegal monitoring at this hotel located in Plano and the other one on Greenville/635. I've stayed in 3 rooms so far. I've been viewed while in the expected privacy of my room dressing, showering, and working by 2 stalkers who have stalked me at the last 15+ places. These perverts have stalked others I have known in the exact same rooms and locations where they view you in the room and make comments during the day and at night. The police are not listening and are not a resource. The accommodations are not acceptable with the monitoring. The towels and linens smell bad like they are half washed and soap is not used. I definitely do not recommend staying at this hotel or any of the lower price point hotels in the area as it has happened at the others as well.More</t>
   </si>
   <si>
-    <t>john w</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r298972331-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1195,9 +1210,6 @@
   </si>
   <si>
     <t>Very happy with our stay!  3 days here.  Front desk gal Renee was very helpful and friendly, one of the best and most efficient I've encountered in a few years.  Nice pool.  Bed firm but not hard.  Well located with a variety of restaurants from McDonalds to steakhouses close to the motel.  We got the motel from the computer reservation software so were not sure what to expect, but we are so pleasantly surprised over the great rates.  NOTE: This is an extended stay motel, so there is no daily room cleaning service.  I think it is once a week maid service, but there is a full kitchen in the room.  They even supply cookware etc.  This will be my #1 choice for this area when I get here again.  I  love to cook my own food when I am on the road and this place makes it possible.  The room is as nicely appointed as the last higher quality facility I stayed in without the cost!  Thanks Extended Stay for a really relaxing stay!More</t>
-  </si>
-  <si>
-    <t>mai r</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d217712-r270470145-Extended_Stay_America_Dallas_Plano-Plano_Texas.html</t>
@@ -1729,47 +1741,43 @@
       <c r="A2" t="n">
         <v>33565</v>
       </c>
-      <c r="B2" t="n">
-        <v>72346</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1781,60 +1789,56 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33565</v>
       </c>
-      <c r="B3" t="n">
-        <v>24475</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1846,39 +1850,35 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33565</v>
       </c>
-      <c r="B4" t="n">
-        <v>136132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>67</v>
@@ -1893,30 +1893,20 @@
         <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>71</v>
       </c>
-      <c r="O4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1934,32 +1924,28 @@
       <c r="A5" t="n">
         <v>33565</v>
       </c>
-      <c r="B5" t="n">
-        <v>136133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>77</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
       </c>
       <c r="K5" t="s">
         <v>78</v>
@@ -1968,138 +1954,118 @@
         <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33565</v>
       </c>
-      <c r="B6" t="n">
-        <v>136134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33565</v>
       </c>
-      <c r="B7" t="n">
-        <v>23215</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
         <v>94</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
       </c>
       <c r="I7" t="s">
         <v>95</v>
@@ -2114,13 +2080,13 @@
         <v>98</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2132,39 +2098,35 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33565</v>
       </c>
-      <c r="B8" t="n">
-        <v>136135</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>103</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
       </c>
       <c r="I8" t="s">
         <v>104</v>
@@ -2179,169 +2141,157 @@
         <v>107</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33565</v>
       </c>
-      <c r="B9" t="n">
-        <v>136136</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>112</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
       </c>
       <c r="I9" t="s">
         <v>113</v>
       </c>
       <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
         <v>114</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>115</v>
-      </c>
-      <c r="L9" t="s">
-        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33565</v>
       </c>
-      <c r="B10" t="n">
-        <v>136137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
         <v>5</v>
@@ -2351,362 +2301,342 @@
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="X10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Y10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33565</v>
       </c>
-      <c r="B11" t="n">
-        <v>136138</v>
-      </c>
-      <c r="C11" t="s">
-        <v>131</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33565</v>
       </c>
-      <c r="B12" t="n">
-        <v>136139</v>
-      </c>
-      <c r="C12" t="s">
-        <v>141</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33565</v>
       </c>
-      <c r="B13" t="n">
-        <v>136140</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
         <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33565</v>
       </c>
-      <c r="B14" t="n">
-        <v>136141</v>
-      </c>
-      <c r="C14" t="s">
-        <v>159</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
         <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>165</v>
-      </c>
-      <c r="O14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33565</v>
       </c>
-      <c r="B15" t="n">
-        <v>136142</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
         <v>5</v>
@@ -2722,51 +2652,57 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33565</v>
       </c>
-      <c r="B16" t="n">
-        <v>136143</v>
-      </c>
-      <c r="C16" t="s">
-        <v>178</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>181</v>
-      </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2776,55 +2712,60 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33565</v>
       </c>
-      <c r="B17" t="n">
-        <v>136144</v>
-      </c>
-      <c r="C17" t="s">
-        <v>182</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
         <v>5</v>
@@ -2833,79 +2774,79 @@
         <v>5</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33565</v>
       </c>
-      <c r="B18" t="n">
-        <v>136145</v>
-      </c>
-      <c r="C18" t="s">
-        <v>193</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
       </c>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>4</v>
@@ -2914,67 +2855,69 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33565</v>
       </c>
-      <c r="B19" t="n">
-        <v>136146</v>
-      </c>
-      <c r="C19" t="s">
-        <v>203</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -2983,139 +2926,139 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33565</v>
       </c>
-      <c r="B20" t="n">
-        <v>136147</v>
-      </c>
-      <c r="C20" t="s">
-        <v>213</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
         <v>3</v>
       </c>
-      <c r="N20" t="s">
-        <v>219</v>
-      </c>
-      <c r="O20" t="s">
-        <v>189</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="X20" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33565</v>
       </c>
-      <c r="B21" t="n">
-        <v>59803</v>
-      </c>
-      <c r="C21" t="s">
-        <v>223</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="O21" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
       </c>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3125,334 +3068,324 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="X21" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="Y21" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33565</v>
       </c>
-      <c r="B22" t="n">
-        <v>136148</v>
-      </c>
-      <c r="C22" t="s">
-        <v>232</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="J22" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="K22" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="X22" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Y22" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33565</v>
       </c>
-      <c r="B23" t="n">
-        <v>136149</v>
-      </c>
-      <c r="C23" t="s">
-        <v>241</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="X23" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="Y23" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33565</v>
       </c>
-      <c r="B24" t="n">
-        <v>37423</v>
-      </c>
-      <c r="C24" t="s">
-        <v>250</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>242</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" t="n">
         <v>1</v>
       </c>
-      <c r="N24" t="s">
-        <v>256</v>
-      </c>
-      <c r="O24" t="s">
-        <v>80</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="X24" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="Y24" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33565</v>
       </c>
-      <c r="B25" t="n">
-        <v>136150</v>
-      </c>
-      <c r="C25" t="s">
-        <v>260</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="J25" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>189</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="X25" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="Y25" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33565</v>
       </c>
-      <c r="B26" t="n">
-        <v>136151</v>
-      </c>
-      <c r="C26" t="s">
-        <v>269</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="n">
@@ -3466,125 +3399,123 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="X26" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33565</v>
       </c>
-      <c r="B27" t="n">
-        <v>136152</v>
-      </c>
-      <c r="C27" t="s">
-        <v>277</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="J27" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="K27" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="Y27" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33565</v>
       </c>
-      <c r="B28" t="n">
-        <v>1378</v>
-      </c>
-      <c r="C28" t="s">
-        <v>286</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="J28" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="K28" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3596,266 +3527,246 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="X28" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="Y28" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33565</v>
       </c>
-      <c r="B29" t="n">
-        <v>3852</v>
-      </c>
-      <c r="C29" t="s">
-        <v>295</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
       <c r="I29" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="J29" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O29" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>2</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="X29" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="Y29" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33565</v>
       </c>
-      <c r="B30" t="n">
-        <v>136153</v>
-      </c>
-      <c r="C30" t="s">
-        <v>304</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
         <v>46</v>
       </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
       <c r="I30" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="J30" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="K30" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="L30" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="X30" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="Y30" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33565</v>
       </c>
-      <c r="B31" t="n">
-        <v>136154</v>
-      </c>
-      <c r="C31" t="s">
-        <v>314</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
         <v>46</v>
       </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
       <c r="I31" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="J31" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="K31" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="O31" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="X31" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="Y31" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33565</v>
       </c>
-      <c r="B32" t="n">
-        <v>136155</v>
-      </c>
-      <c r="C32" t="s">
-        <v>324</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
         <v>46</v>
       </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
       <c r="I32" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="J32" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="K32" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="L32" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>275</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
@@ -3866,490 +3777,716 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="X32" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="Y32" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33565</v>
       </c>
-      <c r="B33" t="n">
-        <v>136156</v>
-      </c>
-      <c r="C33" t="s">
-        <v>333</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
       <c r="I33" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="J33" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="K33" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s">
-        <v>89</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="X33" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="Y33" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33565</v>
       </c>
-      <c r="B34" t="n">
-        <v>136157</v>
-      </c>
-      <c r="C34" t="s">
-        <v>343</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
         <v>46</v>
       </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
       <c r="I34" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="J34" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="X34" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="Y34" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33565</v>
       </c>
-      <c r="B35" t="n">
-        <v>5437</v>
-      </c>
-      <c r="C35" t="s">
-        <v>353</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
         <v>46</v>
       </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
       <c r="I35" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="J35" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="K35" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>332</v>
+      </c>
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="X35" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="Y35" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33565</v>
       </c>
-      <c r="B36" t="n">
-        <v>136158</v>
-      </c>
-      <c r="C36" t="s">
-        <v>362</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
         <v>46</v>
       </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
       <c r="I36" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="J36" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="K36" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
-      <c r="N36" t="s">
-        <v>368</v>
-      </c>
-      <c r="O36" t="s">
-        <v>189</v>
-      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>3</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="X36" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="Y36" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33565</v>
       </c>
-      <c r="B37" t="n">
-        <v>21845</v>
-      </c>
-      <c r="C37" t="s">
-        <v>372</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
       <c r="I37" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="J37" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="K37" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="L37" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="X37" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="Y37" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33565</v>
       </c>
-      <c r="B38" t="n">
-        <v>12600</v>
-      </c>
-      <c r="C38" t="s">
-        <v>382</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
       <c r="I38" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="J38" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="K38" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="L38" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="O38" t="s">
-        <v>189</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="X38" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="Y38" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33565</v>
       </c>
-      <c r="B39" t="n">
-        <v>136159</v>
-      </c>
-      <c r="C39" t="s">
-        <v>391</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
         <v>46</v>
       </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
       <c r="I39" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="J39" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="K39" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="L39" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="s">
-        <v>397</v>
-      </c>
-      <c r="O39" t="s">
-        <v>80</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>1</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>367</v>
+      </c>
+      <c r="X39" t="s">
+        <v>368</v>
+      </c>
       <c r="Y39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33565</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>370</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>371</v>
+      </c>
+      <c r="J40" t="s">
+        <v>372</v>
+      </c>
+      <c r="K40" t="s">
+        <v>373</v>
+      </c>
+      <c r="L40" t="s">
+        <v>374</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>375</v>
+      </c>
+      <c r="O40" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>376</v>
+      </c>
+      <c r="X40" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33565</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>379</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>380</v>
+      </c>
+      <c r="J41" t="s">
+        <v>381</v>
+      </c>
+      <c r="K41" t="s">
+        <v>382</v>
+      </c>
+      <c r="L41" t="s">
+        <v>383</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>384</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>385</v>
+      </c>
+      <c r="X41" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33565</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>388</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>389</v>
+      </c>
+      <c r="J42" t="s">
+        <v>390</v>
+      </c>
+      <c r="K42" t="s">
+        <v>391</v>
+      </c>
+      <c r="L42" t="s">
+        <v>392</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>384</v>
+      </c>
+      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>393</v>
+      </c>
+      <c r="X42" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33565</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>396</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>397</v>
+      </c>
+      <c r="J43" t="s">
         <v>398</v>
+      </c>
+      <c r="K43" t="s">
+        <v>399</v>
+      </c>
+      <c r="L43" t="s">
+        <v>400</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>401</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
